--- a/excel/prediction.xlsx
+++ b/excel/prediction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Google Drive\1-Master\Projekte und Ideen\fussball\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521EA495-C656-4F97-899A-B9A9C85A7121}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5CCD4-8545-4EC0-B21A-DB560DEE7DCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2136" windowWidth="12444" windowHeight="8964" xr2:uid="{1125FB98-420C-4DB8-B087-D0DD876C4E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1125FB98-420C-4DB8-B087-D0DD876C4E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>LASK</t>
   </si>
@@ -81,9 +81,6 @@
     <t>xgb</t>
   </si>
   <si>
-    <t>budget</t>
-  </si>
-  <si>
     <t>quote</t>
   </si>
   <si>
@@ -94,14 +91,21 @@
   </si>
   <si>
     <t>konto</t>
+  </si>
+  <si>
+    <t>pro T</t>
+  </si>
+  <si>
+    <t>umsatz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,11 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -460,23 +466,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDF2AA-00F1-4CD8-9852-EF1A5BD1BD84}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -488,13 +495,16 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -531,12 +541,12 @@
       <c r="L2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <f>K2*L2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -573,12 +583,12 @@
       <c r="L3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <f t="shared" ref="M3:M7" si="3">K3*L3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -615,12 +625,12 @@
       <c r="L4">
         <v>1.03</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -647,7 +657,7 @@
         <v>0.4880000000000001</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I3:I7" si="4">ABS(H5)</f>
+        <f t="shared" ref="I5:I7" si="4">ABS(H5)</f>
         <v>0.4880000000000001</v>
       </c>
       <c r="J5" s="1">
@@ -656,17 +666,17 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>9.0656042031523647</v>
+        <v>3.6262416812609461</v>
       </c>
       <c r="L5">
         <v>1.25</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
-        <v>11.332005253940455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.5328021015761824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -702,17 +712,17 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>2.7122504378283709</v>
+        <v>1.0849001751313485</v>
       </c>
       <c r="L6">
         <v>1.83</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <f t="shared" si="3"/>
-        <v>4.9634183012259188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.9853673204903679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -748,56 +758,553 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="2"/>
-        <v>9.4371453590192633</v>
+        <v>3.7748581436077053</v>
       </c>
       <c r="L7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <f t="shared" si="3"/>
-        <v>10.75834570928196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.303338283712784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I8">
         <f>SUM(I2:I7)</f>
         <v>1.1420000000000001</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <f>SUM(M2:M7)</f>
-        <v>27.053769264448334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10.821507705779334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>84.86</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <f>K9/4</f>
-        <v>21.215</v>
+        <f>K9/10</f>
+        <v>8.4860000000000007</v>
       </c>
       <c r="L10" s="3">
         <f>(M8/K10)-1</f>
         <v>0.27521891418563915</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>0.64329999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>1/C11</f>
         <v>1.5544846883258201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <f>AVERAGE($F$13:F13)</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <f>($O$13*F13)+($O$14*AVERAGE($F$13:F13))</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <f>SUM($F$13:F13)/COUNT($F$13:F13)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <f>($O$13*F13)+($O$14*K13)</f>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f>($O$13*L13)+($O$14*AVERAGE($L$13:L13))</f>
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <f>AVERAGE($F$13:F14)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="4">
+        <f>($O$13*F14)+($O$14*AVERAGE($F$13:F14))</f>
+        <v>1.25</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <f>SUM($F$13:F14)/COUNT($F$13:F14)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="4">
+        <f>($O$13*F14)+($O$14*K14)</f>
+        <v>1.25</v>
+      </c>
+      <c r="M14">
+        <f>($O$13*L14)+($O$14*AVERAGE($L$13:L14))</f>
+        <v>1.4375</v>
+      </c>
+      <c r="O14">
+        <f>1-O13</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>AVERAGE($F$13:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f>($O$13*F15)+($O$14*AVERAGE($F$13:F15))</f>
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <f>SUM($F$13:F15)/COUNT($F$13:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f>($O$13*F15)+($O$14*K15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <f>($O$13*L15)+($O$14*AVERAGE($L$13:L15))</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <f>AVERAGE($F$13:F16)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="4">
+        <f>($O$13*F16)+($O$14*AVERAGE($F$13:F16))</f>
+        <v>2.25</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <f>SUM($F$13:F16)/COUNT($F$13:F16)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="4">
+        <f>($O$13*F16)+($O$14*K16)</f>
+        <v>2.25</v>
+      </c>
+      <c r="M16">
+        <f>($O$13*L16)+($O$14*AVERAGE($L$13:L16))</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f>AVERAGE($F$13:F17)</f>
+        <v>1.4</v>
+      </c>
+      <c r="I17" s="4">
+        <f>($O$13*F17)+($O$14*AVERAGE($F$13:F17))</f>
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <f>SUM($F$13:F17)/COUNT($F$13:F17)</f>
+        <v>1.4</v>
+      </c>
+      <c r="L17" s="4">
+        <f>($O$13*F17)+($O$14*K17)</f>
+        <v>1.2</v>
+      </c>
+      <c r="M17">
+        <f>($O$13*L17)+($O$14*AVERAGE($L$13:L17))</f>
+        <v>1.3199999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <f>AVERAGE($F$13:F18)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="4">
+        <f>($O$13*F18)+($O$14*AVERAGE($F$13:F18))</f>
+        <v>1.75</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <f>SUM($F$13:F18)/COUNT($F$13:F18)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="4">
+        <f>($O$13*F18)+($O$14*K18)</f>
+        <v>1.75</v>
+      </c>
+      <c r="M18">
+        <f>($O$13*L18)+($O$14*AVERAGE($L$13:L18))</f>
+        <v>1.6208333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f>AVERAGE($F$13:F19)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I19" s="4">
+        <f>($O$13*F19)+($O$14*AVERAGE($F$13:F19))</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <f>SUM($F$13:F19)/COUNT($F$13:F19)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="L19" s="4">
+        <f>($O$13*F19)+($O$14*K19)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M19">
+        <f>($O$13*L19)+($O$14*AVERAGE($L$13:L19))</f>
+        <v>1.0066326530612244</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <f>AVERAGE($F$13:F20)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I20" s="4">
+        <f>($O$13*F20)+($O$14*AVERAGE($F$13:F20))</f>
+        <v>1.125</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <f>SUM($F$13:F20)/COUNT($F$13:F20)</f>
+        <v>1.25</v>
+      </c>
+      <c r="L20" s="4">
+        <f>($O$13*F20)+($O$14*K20)</f>
+        <v>1.125</v>
+      </c>
+      <c r="M20">
+        <f>($O$13*L20)+($O$14*AVERAGE($L$13:L20))</f>
+        <v>1.2323660714285714</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>AVERAGE($F$13:F21)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I21" s="4">
+        <f>($O$13*F21)+($O$14*AVERAGE($F$13:F21))</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <f>SUM($F$13:F21)/COUNT($F$13:F21)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L21" s="4">
+        <f>($O$13*F21)+($O$14*K21)</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="M21">
+        <f>($O$13*L21)+($O$14*AVERAGE($L$13:L21))</f>
+        <v>1.5213624338624336</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <f>AVERAGE($F$13:F22)</f>
+        <v>1.6</v>
+      </c>
+      <c r="I22" s="4">
+        <f>($O$13*F22)+($O$14*AVERAGE($F$13:F22))</f>
+        <v>2.8</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <f>SUM($F$13:F22)/COUNT($F$13:F22)</f>
+        <v>1.6</v>
+      </c>
+      <c r="L22" s="4">
+        <f>($O$13*F22)+($O$14*K22)</f>
+        <v>2.8</v>
+      </c>
+      <c r="M22">
+        <f>($O$13*L22)+($O$14*AVERAGE($L$13:L22))</f>
+        <v>2.1592261904761902</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f>AVERAGE($F$13:F23)</f>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="I23" s="4">
+        <f>($O$13*F23)+($O$14*AVERAGE($F$13:F23))</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <f>SUM($F$13:F23)/COUNT($F$13:F23)</f>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="L23" s="4">
+        <f>($O$13*F23)+($O$14*K23)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M23">
+        <f>($O$13*L23)+($O$14*AVERAGE($L$13:L23))</f>
+        <v>1.0868998425816607</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4">
+        <f>SUM($F$13:F24)/COUNT($F$13:F24)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:L35" si="5">($O$13*F24)+($O$14*K24)</f>
+        <v>1.75</v>
+      </c>
+      <c r="M24">
+        <f>($O$13*L24)+($O$14*AVERAGE($L$13:L24))</f>
+        <v>1.6109081890331889</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f>SUM($F$13:F25)/COUNT($F$13:F25)</f>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="M25">
+        <f>($O$13*L25)+($O$14*AVERAGE($L$13:L25))</f>
+        <v>1.342021760290991</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>SUM($F$13:F26)/COUNT($F$13:F26)</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="5"/>
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="M26">
+        <f>($O$13*L26)+($O$14*AVERAGE($L$13:L26))</f>
+        <v>1.0382548998620424</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4">
+        <f>SUM($F$13:F27)/COUNT($F$13:F27)</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="M27">
+        <f>($O$13*L27)+($O$14*AVERAGE($L$13:L27))</f>
+        <v>1.8434823509823508</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <f>SUM($F$13:F28)/COUNT($F$13:F28)</f>
+        <v>1.4375</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="5"/>
+        <v>1.21875</v>
+      </c>
+      <c r="M28">
+        <f>($O$13*L28)+($O$14*AVERAGE($L$13:L28))</f>
+        <v>1.3288506415459538</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4">
+        <f>SUM($F$13:F29)/COUNT($F$13:F29)</f>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7352941176470589</v>
+      </c>
+      <c r="M29">
+        <f>($O$13*L29)+($O$14*AVERAGE($L$13:L29))</f>
+        <v>1.5958386660916937</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>SUM($F$13:F30)/COUNT($F$13:F30)</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="5"/>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="M30">
+        <f>($O$13*L30)+($O$14*AVERAGE($L$13:L30))</f>
+        <v>1.0542488636545007</v>
+      </c>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <f>SUM($F$13:F31)/COUNT($F$13:F31)</f>
+        <v>1.368421052631579</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1842105263157894</v>
+      </c>
+      <c r="M31">
+        <f>($O$13*L31)+($O$14*AVERAGE($L$13:L31))</f>
+        <v>1.2930834109967846</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
+        <f>SUM($F$13:F32)/COUNT($F$13:F32)</f>
+        <v>1.4</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="M32">
+        <f>($O$13*L32)+($O$14*AVERAGE($L$13:L32))</f>
+        <v>1.5584292404469453</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+      <c r="K33" s="4">
+        <f>SUM($F$13:F33)/COUNT($F$13:F33)</f>
+        <v>1.5238095238095237</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7619047619047619</v>
+      </c>
+      <c r="M33">
+        <f>($O$13*L33)+($O$14*AVERAGE($L$13:L33))</f>
+        <v>2.121406532851966</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <f>SUM($F$13:F34)/COUNT($F$13:F34)</f>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M34">
+        <f>($O$13*L34)+($O$14*AVERAGE($L$13:L34))</f>
+        <v>1.0869624342512569</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4">
+        <f>SUM($F$13:F35)/COUNT($F$13:F35)</f>
+        <v>1.5217391304347827</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2608695652173916</v>
+      </c>
+      <c r="M35">
+        <f>($O$13*L35)+($O$14*AVERAGE($L$13:L35))</f>
+        <v>1.8714612320059283</v>
       </c>
     </row>
   </sheetData>
